--- a/数据整理/stocks/A股/上证主板/600176-中国巨石.xlsx
+++ b/数据整理/stocks/A股/上证主板/600176-中国巨石.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9152,7 +9153,6 @@
           <t>东方民丰回报赢安混合C</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
           <t>28.63</t>
@@ -9184,7 +9184,6 @@
           <t>西部利得祥逸债券C</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
           <t>28.63</t>
@@ -9216,7 +9215,6 @@
           <t>工银核心价值混合H</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
           <t>83.62</t>
@@ -9248,7 +9246,6 @@
           <t>九泰天宝灵活配置混合C</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
           <t>68.13</t>
@@ -9263,6 +9260,2682 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005968</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>115.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2253</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7427</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5336</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>58.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7370</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6660</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005969</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信工业周期精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6111</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0863</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011206</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0281</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8806</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8728</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>67.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8339</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7550</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6810</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>040011</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安核心混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6232</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>72.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5924</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4017</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3259</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3135</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2745</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2102</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1988</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011207</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0623</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008513</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方宝丰混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>47.26</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009627</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010043</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>53.81</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>72.95</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>95.48</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009628</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010044</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008514</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>南方宝丰混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>67.72</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600176-中国巨石.xlsx
+++ b/数据整理/stocks/A股/上证主板/600176-中国巨石.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11942,4 +11943,3174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9426</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>040008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安策略优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8712</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2388</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010787</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>51.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8105</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商金安成长严选1年封闭运作混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7331</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6776</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>970016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4544</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4280</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2797</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2641</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>62.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1498</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1150</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7886</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7650</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7572</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4703</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>040011</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安核心混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4644</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4214</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010742</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>56.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4054</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4045</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3660</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3114</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3105</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2899</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011238</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2602</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>69.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2566</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>970017</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2565</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161729</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2516</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159870</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2375</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005521</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安红利精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2316</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2224</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>67.36</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2081</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1989</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1903</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1565</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>70.47</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>516020</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华宝中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>51.12</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010788</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>48.10</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>516120</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>67.95</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004648</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方安睿混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>516220</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰中证细分化工产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003658</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长盛量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>43.32</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009627</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010043</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011239</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华安聚恒精选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004446</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>南方荣年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010743</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011408</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>天弘益新混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>31.84</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>51.12</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009628</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>67.36</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011409</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>天弘益新混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>31.84</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004447</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>南方荣年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>62.74</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>67.95</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>70.47</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600176-中国巨石.xlsx
+++ b/数据整理/stocks/A股/上证主板/600176-中国巨石.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15113,4 +15114,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>82</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>69</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>99</v>
+      </c>
+      <c r="D4" t="n">
+        <v>41.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>131</v>
+      </c>
+      <c r="D5" t="n">
+        <v>52.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600176-中国巨石.xlsx
+++ b/数据整理/stocks/A股/上证主板/600176-中国巨石.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15122,7 +15123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15133,17 +15134,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15153,14 +15174,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>82</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32.26</v>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8884</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -15169,14 +15212,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>69</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27.41</v>
+          <t>011882</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7730</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -15185,14 +15250,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>99</v>
-      </c>
-      <c r="D4" t="n">
-        <v>41.29</v>
+          <t>012196</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0227</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -15201,13 +15288,3227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>012123</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商金安成长严选1年封闭运作混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8169</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5509</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>970016</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4206</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010996</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商品质升级混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3585</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3450</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2545</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1544</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8852</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7924</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001256</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泓德优选成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7441</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7264</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6871</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6784</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>57.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5972</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5840</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4363</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012197</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商品质生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4193</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3894</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3790</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3720</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3414</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3241</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3204</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2973</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>77.31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161729</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2557</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2552</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>970017</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2478</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2406</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2400</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003161</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方安泰混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2236</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2176</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2092</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>49.90</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1999</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1683</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>74.98</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>512650</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富中证长三角一体化发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>96.63</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010997</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>59.90</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>19.04</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004648</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方安睿混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003658</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长盛量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>41.35</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011883</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008251</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇安宜创量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011545</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.07</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008252</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇安宜创量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001181</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>南方改革机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009186</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005550</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009627</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>50.05</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005551</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>汇安成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>49.90</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011546</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009628</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009187</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>85</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>82</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>69</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>99</v>
+      </c>
+      <c r="D5" t="n">
+        <v>41.29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>131</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>52.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600176-中国巨石.xlsx
+++ b/数据整理/stocks/A股/上证主板/600176-中国巨石.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18407,7 +18408,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18418,17 +18419,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -18438,14 +18459,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>85</v>
-      </c>
-      <c r="D2" t="n">
-        <v>34.93</v>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0368</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -18454,14 +18497,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>82</v>
-      </c>
-      <c r="D3" t="n">
-        <v>32.26</v>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6107</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -18470,14 +18535,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>69</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27.41</v>
+          <t>011882</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4722</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -18486,14 +18573,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>99</v>
-      </c>
-      <c r="D5" t="n">
-        <v>41.29</v>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1836</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -18502,13 +18611,2751 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0285</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0285</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9363</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7410</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6635</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5916</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5753</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5000</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4803</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012262</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>66.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4549</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>47.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4291</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3303</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3173</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3080</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2660</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2618</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2583</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2474</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010742</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2247</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2077</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1992</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1955</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>66.51</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>50.09</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>512650</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富中证长三角一体化发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>51.74</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004648</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方安睿混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011883</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009627</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009186</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005059</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方安福混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>30.77</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001566</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010743</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011545</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010006</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>96.69</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>30.77</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>38.91</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>50.09</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007569</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南方安福混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001567</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009628</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>51.13</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011546</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010007</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>51.13</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009187</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>73</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>85</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>82</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>69</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>99</v>
+      </c>
+      <c r="D6" t="n">
+        <v>41.29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>131</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>52.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600176-中国巨石.xlsx
+++ b/数据整理/stocks/A股/上证主板/600176-中国巨石.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21238,7 +21239,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21249,17 +21250,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -21269,14 +21290,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>73</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.17</v>
+          <t>900011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2091</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -21285,14 +21328,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>85</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34.93</v>
+          <t>009264</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德瑞兴三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1759</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -21301,14 +21366,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>82</v>
-      </c>
-      <c r="D4" t="n">
-        <v>32.26</v>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0397</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -21317,14 +21404,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>69</v>
-      </c>
-      <c r="D5" t="n">
-        <v>27.41</v>
+          <t>900099</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>63.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5747</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -21333,14 +21442,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>99</v>
-      </c>
-      <c r="D6" t="n">
-        <v>41.29</v>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4609</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -21349,13 +21480,2723 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0589</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9499</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9357</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9108</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8474</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003161</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方安泰混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8308</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7584</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6574</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012262</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5978</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5775</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>900089</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5463</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>37.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4127</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3930</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3566</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3452</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2955</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方盛元红利混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2610</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2559</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2250</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2240</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010742</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>17.76</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2015</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>73.17</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1617</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1533</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>73.76</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>512650</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富中证长三角一体化发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>96.62</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>50.32</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>73.25</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004648</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方安睿混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009186</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>015458</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001181</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方改革机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>67.57</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010743</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>67.22</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012220</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方安泰混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011607</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>50.32</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>73.76</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>31.83</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009187</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>31.83</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>015459</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>天弘精选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>73.17</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>73</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>73</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>85</v>
+      </c>
+      <c r="D4" t="n">
+        <v>34.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>82</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>69</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>99</v>
+      </c>
+      <c r="D7" t="n">
+        <v>41.29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>131</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>52.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600176-中国巨石.xlsx
+++ b/数据整理/stocks/A股/上证主板/600176-中国巨石.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D2" t="n">
-        <v>24.52</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>73</v>
       </c>
       <c r="D3" t="n">
-        <v>19.17</v>
+        <v>24.52</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D4" t="n">
-        <v>34.93</v>
+        <v>19.17</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D5" t="n">
-        <v>32.26</v>
+        <v>34.93</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D6" t="n">
-        <v>27.41</v>
+        <v>32.26</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D7" t="n">
-        <v>41.29</v>
+        <v>27.41</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>99</v>
+      </c>
+      <c r="D8" t="n">
+        <v>41.29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>131</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>52.26</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>900011</t>
+          <t>007549</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中信证券红利价值一年持有混合A</t>
+          <t>中泰开阳价值优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.72</t>
+          <t>13.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>9.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2091</t>
+          <t>1.3006</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009264</t>
+          <t>530003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泓德瑞兴三年持有期混合</t>
+          <t>建信优选成长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>81.19</t>
+          <t>14.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.65</t>
+          <t>67.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.1759</t>
+          <t>0.8010</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007549</t>
+          <t>012001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中泰开阳价值优选灵活配置混合A</t>
+          <t>中泰星宇价值成长混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.38</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.54</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.0397</t>
+          <t>0.7095</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>900099</t>
+          <t>010728</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中信证券红利价值一年持有混合B</t>
+          <t>中泰兴诚价值一年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>63.24</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>89.26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>8.59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.5747</t>
+          <t>0.5695</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009362</t>
+          <t>003161</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商丰盈积极配置混合A</t>
+          <t>南方安泰混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17.86</t>
+          <t>72.63</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.84</t>
+          <t>21.10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.4609</t>
+          <t>0.4285</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>530003</t>
+          <t>240008</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>建信优选成长混合A</t>
+          <t>华宝收益增长混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>16.65</t>
+          <t>8.39</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.41</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.36</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.0589</t>
+          <t>0.4170</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012001</t>
+          <t>009362</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+          <t>招商丰盈积极配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.01</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>84.77</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.9499</t>
+          <t>0.3922</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010699</t>
+          <t>217010</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东方红创新趋势混合</t>
+          <t>招商大盘蓝筹混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>30.88</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>87.14</t>
+          <t>78.95</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.9357</t>
+          <t>0.2838</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010728</t>
+          <t>012437</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中泰兴诚价值一年持有期混合A</t>
+          <t>德邦价值优选混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>88.64</t>
+          <t>90.21</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>10.02</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.9108</t>
+          <t>0.2813</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>240008</t>
+          <t>217009</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华宝收益增长混合</t>
+          <t>招商核心价值混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10.04</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.39</t>
+          <t>79.53</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>8.44</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.8474</t>
+          <t>0.2788</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1036,36 +1053,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003161</t>
+          <t>202009</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>南方安泰混合</t>
+          <t>南方盛元红利混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.33</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>20.79</t>
+          <t>89.92</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.8308</t>
+          <t>0.2210</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1074,36 +1091,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>217010</t>
+          <t>011437</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>招商大盘蓝筹混合</t>
+          <t>中泰开阳价值优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8.88</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>87.13</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8.54</t>
+          <t>9.35</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.7584</t>
+          <t>0.2188</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1112,36 +1129,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>217009</t>
+          <t>420005</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>招商核心价值混合</t>
+          <t>天弘周期策略混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8.86</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>81.81</t>
+          <t>93.08</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.6574</t>
+          <t>0.1705</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1150,36 +1167,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>012262</t>
+          <t>001305</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华宝可持续发展混合A</t>
+          <t>九泰天富改革新动力混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>15.65</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>79.17</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.5978</t>
+          <t>0.1566</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1188,36 +1205,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006608</t>
+          <t>012002</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>泓德研究优选混合</t>
+          <t>中泰星宇价值成长混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>21.71</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>87.77</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.5775</t>
+          <t>0.1534</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1226,32 +1243,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>900089</t>
+          <t>420001</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中信证券红利价值一年持有混合C</t>
+          <t>天弘精选混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>21.94</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>73.52</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.5463</t>
+          <t>0.1480</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1264,36 +1281,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>011033</t>
+          <t>673110</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>南方宝恒混合型证券投资基金A</t>
+          <t>西部利得新润灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>37.18</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>24.11</t>
+          <t>76.88</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.4127</t>
+          <t>0.1245</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1302,36 +1319,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>011437</t>
+          <t>009363</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中泰开阳价值优选灵活配置混合C</t>
+          <t>招商丰盈积极配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>84.77</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>9.54</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.3930</t>
+          <t>0.1224</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1340,36 +1357,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009989</t>
+          <t>010729</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华宝研究精选混合</t>
+          <t>中泰兴诚价值一年持有期混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>9.19</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>79.21</t>
+          <t>89.26</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>8.59</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.3566</t>
+          <t>0.1091</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1378,36 +1395,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009363</t>
+          <t>001844</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>招商丰盈积极配置混合C</t>
+          <t>九泰久益灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>88.84</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.3452</t>
+          <t>0.0887</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1416,36 +1433,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>010861</t>
+          <t>512650</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>长信企业优选一年持有期灵活配置混合</t>
+          <t>汇添富中证长三角一体化发展主题ETF</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>76.10</t>
+          <t>96.43</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.2955</t>
+          <t>0.0872</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1454,36 +1471,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>202009</t>
+          <t>011851</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>南方盛元红利混合</t>
+          <t>天弘先进制造混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>87.25</t>
+          <t>91.41</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.2610</t>
+          <t>0.0829</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1492,36 +1509,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>420005</t>
+          <t>009695</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>天弘周期策略混合</t>
+          <t>招商成长精选一年定期开放混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>88.60</t>
+          <t>90.95</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.2559</t>
+          <t>0.0814</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1530,36 +1547,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>012263</t>
+          <t>005741</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华宝可持续发展混合C</t>
+          <t>南方君信灵活配置混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>79.17</t>
+          <t>71.98</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.2250</t>
+          <t>0.0801</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1568,36 +1585,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>001305</t>
+          <t>530012</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>九泰天富改革新动力混合A</t>
+          <t>建信积极配置混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>47.66</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.2240</t>
+          <t>0.0771</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1606,36 +1623,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>010742</t>
+          <t>011698</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>南方宁悦一年持有期混合A</t>
+          <t>南方均衡回报混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>17.76</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>25.71</t>
+          <t>49.31</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.2184</t>
+          <t>0.0726</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -1644,36 +1661,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>011034</t>
+          <t>012419</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>南方宝恒混合型证券投资基金C</t>
+          <t>天弘国证建材指数C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18.39</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>24.11</t>
+          <t>94.93</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>9.76</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.2041</t>
+          <t>0.0615</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1682,36 +1699,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>012002</t>
+          <t>002249</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+          <t>招商境远灵活配置混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>84.27</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.2031</t>
+          <t>0.0592</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -1720,36 +1737,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>910021</t>
+          <t>001782</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>东方红启华三年持有期混合型证券投资基金A</t>
+          <t>九泰久益灵活配置混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>86.80</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.2015</t>
+          <t>0.0480</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1758,36 +1775,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>420001</t>
+          <t>015458</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>天弘精选混合</t>
+          <t>天弘周期策略混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>73.17</t>
+          <t>93.08</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.1953</t>
+          <t>0.0374</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1796,36 +1813,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>005589</t>
+          <t>012220</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>长信企业精选两年定期开放灵活配置混合</t>
+          <t>南方安泰混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>77.24</t>
+          <t>21.10</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.1855</t>
+          <t>0.0348</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -1834,36 +1851,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>009695</t>
+          <t>011852</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>招商成长精选一年定期开放混合A</t>
+          <t>天弘先进制造混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>79.33</t>
+          <t>91.41</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.1815</t>
+          <t>0.0289</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1872,36 +1889,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>673110</t>
+          <t>009696</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>西部利得新润灵活配置混合</t>
+          <t>招商成长精选一年定期开放混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>80.77</t>
+          <t>90.95</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.1644</t>
+          <t>0.0271</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -1910,32 +1927,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>510410</t>
+          <t>002244</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>博时上证自然资源ETF</t>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>98.79</t>
+          <t>62.99</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.1617</t>
+          <t>0.0158</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -1948,36 +1965,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>011851</t>
+          <t>011545</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>天弘先进制造混合型证券投资基金A</t>
+          <t>长江沪深300指数增强A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>83.51</t>
+          <t>92.89</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.1598</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -1986,36 +2003,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>515150</t>
+          <t>009912</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>富国中证国企一带一路ETF</t>
+          <t>九泰天富改革新动力混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>7.77</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>98.69</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.1546</t>
+          <t>0.0143</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -2024,32 +2041,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>010729</t>
+          <t>012405</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中泰兴诚价值一年持有期混合C</t>
+          <t>天弘国证建材指数A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>88.64</t>
+          <t>94.93</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>10.02</t>
+          <t>9.76</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.1533</t>
+          <t>0.0127</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -2062,36 +2079,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>001782</t>
+          <t>012438</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合A</t>
+          <t>德邦价值优选混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>89.97</t>
+          <t>90.21</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>6.92</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.1515</t>
+          <t>0.0117</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -2100,36 +2117,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>005741</t>
+          <t>510770</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>南方君信灵活配置混合A</t>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>73.76</t>
+          <t>96.36</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.1132</t>
+          <t>0.0110</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -2138,36 +2155,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>512650</t>
+          <t>011701</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>汇添富中证长三角一体化发展主题ETF</t>
+          <t>南方均衡回报混合C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>96.62</t>
+          <t>49.31</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.1097</t>
+          <t>0.0067</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -2176,36 +2193,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>001844</t>
+          <t>010150</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合C</t>
+          <t>南方君信灵活配置混合C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>89.97</t>
+          <t>71.98</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>6.92</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.1052</t>
+          <t>0.0057</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -2214,36 +2231,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>011698</t>
+          <t>011546</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>南方均衡回报混合型证券投资基金A</t>
+          <t>长江沪深300指数增强C</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>50.32</t>
+          <t>92.89</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.1046</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -2252,36 +2269,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>000866</t>
+          <t>008113</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>华宝高端制造股票</t>
+          <t>中泰中证500指数增强C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>88.51</t>
+          <t>91.57</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.1025</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
@@ -2290,36 +2307,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>530012</t>
+          <t>015573</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>建信积极配置混合</t>
+          <t>华宝收益增长混合C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>73.25</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.1019</t>
+          <t>0.0020</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -2328,36 +2345,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>515110</t>
+          <t>008112</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>易方达中证国企一带一路ETF</t>
+          <t>中泰中证500指数增强A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>99.55</t>
+          <t>91.57</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.1016</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -2366,36 +2383,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>002249</t>
+          <t>960028</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>招商境远灵活配置混合</t>
+          <t>建信优选成长混合H</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>87.32</t>
+          <t>67.98</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.0781</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -2404,36 +2421,34 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>004648</t>
+          <t>015356</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>南方安睿混合</t>
+          <t>西部利得新润灵活配置混合C</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>7.94</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>21.94</t>
+          <t>76.88</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0508</t>
-        </is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -2442,980 +2457,34 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>009696</t>
+          <t>015459</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>招商成长精选一年定期开放混合C</t>
+          <t>天弘精选混合C</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>79.33</t>
+          <t>73.52</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0480</t>
-        </is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>009186</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>天弘聚新三个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>27.80</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0399</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>011852</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>天弘先进制造混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>83.51</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0393</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>015458</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>天弘周期策略混合C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>88.60</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0388</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
         <v>7</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>690008</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>民生加银中证内地资源主题指数</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0367</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>011313</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>东方红启华三年持有期混合型证券投资基金B</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>86.80</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0336</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>001181</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>南方改革机遇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>67.57</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0267</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>010743</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>南方宁悦一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>25.71</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0229</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>515990</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>汇添富中证国企一带一路ETF</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>98.87</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0218</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>002244</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>景顺长城低碳科技主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>67.22</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0207</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>009700</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>长江添利混合A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>25.08</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0178</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>510770</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>申万菱信上证G60战略新兴产业成份ETF</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>96.13</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0167</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>009701</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>长江添利混合C</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>25.08</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>012220</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>南方安泰混合C</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>20.79</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>011607</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>民生加银中证内地资源主题指数C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>011701</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>南方均衡回报混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>50.32</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0091</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>010150</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>南方君信灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>73.76</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>519951</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>长信利泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>27.07</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>009912</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>九泰天富改革新动力混合C</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>8.89</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>005429</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>渤海汇金睿选混合A</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>31.83</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>960028</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>建信优选成长混合H</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>89.41</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>009187</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>天弘聚新三个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>27.80</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>005430</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>渤海汇金睿选混合C</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>31.83</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>007863</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>长信利泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>27.07</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>008071</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>长信利泰灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>27.07</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>015459</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>天弘精选混合C</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>73.17</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3480,36 +2549,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007549</t>
+          <t>900011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中泰开阳价值优选灵活配置混合A</t>
+          <t>中信证券红利价值一年持有混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.45</t>
+          <t>88.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>91.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.0368</t>
+          <t>2.2091</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3518,36 +2587,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009362</t>
+          <t>009264</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商丰盈积极配置混合A</t>
+          <t>泓德瑞兴三年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.39</t>
+          <t>81.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.04</t>
+          <t>84.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.6107</t>
+          <t>2.1759</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3556,36 +2625,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011882</t>
+          <t>007549</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商蓝筹精选股票型证券投资基金A</t>
+          <t>中泰开阳价值优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>48.27</t>
+          <t>21.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.18</t>
+          <t>92.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.4722</t>
+          <t>2.0397</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3594,36 +2663,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012001</t>
+          <t>900099</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+          <t>中信证券红利价值一年持有混合B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.14</t>
+          <t>63.24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>91.05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.75</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.1836</t>
+          <t>1.5747</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3632,36 +2701,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>530003</t>
+          <t>009362</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信优选成长混合A</t>
+          <t>招商丰盈积极配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.75</t>
+          <t>17.86</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>75.39</t>
+          <t>88.84</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.0285</t>
+          <t>1.4609</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -3670,32 +2739,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>960028</t>
+          <t>530003</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>建信优选成长混合H</t>
+          <t>建信优选成长混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>15.75</t>
+          <t>16.65</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>75.39</t>
+          <t>89.41</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.0285</t>
+          <t>1.0589</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -3708,32 +2777,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010728</t>
+          <t>012001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中泰兴诚价值一年持有期混合A</t>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>10.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.08</t>
+          <t>92.23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.9363</t>
+          <t>0.9499</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -3746,36 +2815,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>240008</t>
+          <t>010699</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华宝收益增长混合</t>
+          <t>东方红创新趋势混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>30.88</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>87.14</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.7410</t>
+          <t>0.9357</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -3784,36 +2853,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>217010</t>
+          <t>010728</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商大盘蓝筹混合</t>
+          <t>中泰兴诚价值一年持有期混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.19</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>84.38</t>
+          <t>88.64</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>10.02</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.6635</t>
+          <t>0.9108</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -3822,36 +2891,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006608</t>
+          <t>240008</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>泓德研究优选混合</t>
+          <t>华宝收益增长混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>21.75</t>
+          <t>10.04</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.61</t>
+          <t>93.39</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>8.44</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.5916</t>
+          <t>0.8474</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -3860,36 +2929,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>217009</t>
+          <t>003161</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商核心价值混合</t>
+          <t>南方安泰混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>89.33</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>82.51</t>
+          <t>20.79</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.5753</t>
+          <t>0.8308</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -3898,36 +2967,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011437</t>
+          <t>217010</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中泰开阳价值优选灵活配置混合C</t>
+          <t>招商大盘蓝筹混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>8.88</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>87.13</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>8.54</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.5000</t>
+          <t>0.7584</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -3936,36 +3005,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>360001</t>
+          <t>217009</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>光大保德信量化股票</t>
+          <t>招商核心价值混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>17.53</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>88.21</t>
+          <t>81.81</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.4803</t>
+          <t>0.6574</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -3984,22 +3053,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>16.19</t>
+          <t>15.65</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>66.51</t>
+          <t>79.17</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.4549</t>
+          <t>0.5978</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -4012,36 +3081,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011033</t>
+          <t>006608</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>南方宝恒混合型证券投资基金A</t>
+          <t>泓德研究优选混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>47.68</t>
+          <t>21.71</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20.19</t>
+          <t>87.77</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.4291</t>
+          <t>0.5775</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -4050,36 +3119,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>012107</t>
+          <t>900089</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+          <t>中信证券红利价值一年持有混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>11.51</t>
+          <t>21.94</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>91.05</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.3303</t>
+          <t>0.5463</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -4088,36 +3157,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009695</t>
+          <t>011033</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>招商成长精选一年定期开放混合A</t>
+          <t>南方宝恒混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>37.18</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>87.04</t>
+          <t>24.11</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.3173</t>
+          <t>0.4127</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -4126,36 +3195,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009363</t>
+          <t>011437</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>招商丰盈积极配置混合C</t>
+          <t>中泰开阳价值优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>87.04</t>
+          <t>92.81</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.3080</t>
+          <t>0.3930</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -4164,36 +3233,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>007202</t>
+          <t>009989</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天弘优质成长企业精选混合</t>
+          <t>华宝研究精选混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>9.19</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>92.52</t>
+          <t>79.21</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.2660</t>
+          <t>0.3566</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -4202,36 +3271,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001305</t>
+          <t>009363</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>九泰天富改革新动力混合A</t>
+          <t>招商丰盈积极配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>88.86</t>
+          <t>88.84</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.2618</t>
+          <t>0.3452</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -4240,36 +3309,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>420005</t>
+          <t>010861</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天弘周期策略混合</t>
+          <t>长信企业优选一年持有期灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>9.85</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>89.31</t>
+          <t>76.10</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.2583</t>
+          <t>0.2955</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -4278,36 +3347,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>009989</t>
+          <t>202009</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华宝研究精选混合</t>
+          <t>南方盛元红利混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>8.65</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>85.40</t>
+          <t>87.25</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.2474</t>
+          <t>0.2610</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -4316,36 +3385,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010742</t>
+          <t>420005</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>南方宁悦一年持有期混合A</t>
+          <t>天弘周期策略混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21.20</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23.31</t>
+          <t>88.60</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.2247</t>
+          <t>0.2559</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -4354,32 +3423,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>012002</t>
+          <t>012263</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+          <t>华宝可持续发展混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>79.17</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>9.75</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.2077</t>
+          <t>0.2250</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -4392,36 +3461,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>011034</t>
+          <t>001305</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>南方宝恒混合型证券投资基金C</t>
+          <t>九泰天富改革新动力混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>22.13</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>20.19</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.1992</t>
+          <t>0.2240</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -4430,36 +3499,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>420001</t>
+          <t>010742</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天弘精选混合</t>
+          <t>南方宁悦一年持有期混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7.16</t>
+          <t>17.76</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>71.80</t>
+          <t>25.71</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.1955</t>
+          <t>0.2184</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -4468,36 +3537,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>515760</t>
+          <t>011034</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华夏中证浙江国资创新发展ETF</t>
+          <t>南方宝恒混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>18.39</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>98.73</t>
+          <t>24.11</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.1855</t>
+          <t>0.2041</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -4506,36 +3575,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>012263</t>
+          <t>012002</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华宝可持续发展混合C</t>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>6.42</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>66.51</t>
+          <t>92.23</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.1804</t>
+          <t>0.2031</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -4544,36 +3613,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>001782</t>
+          <t>910021</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合A</t>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>86.80</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>7.56</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.1761</t>
+          <t>0.2015</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -4582,36 +3651,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>010729</t>
+          <t>420001</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中泰兴诚价值一年持有期混合C</t>
+          <t>天弘精选混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>88.08</t>
+          <t>73.17</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.1620</t>
+          <t>0.1953</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -4620,36 +3689,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>673110</t>
+          <t>005589</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>西部利得新润灵活配置混合</t>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>81.49</t>
+          <t>77.24</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.1438</t>
+          <t>0.1855</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -4658,32 +3727,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>011851</t>
+          <t>009695</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>天弘先进制造混合型证券投资基金A</t>
+          <t>招商成长精选一年定期开放混合A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>91.41</t>
+          <t>79.33</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.1395</t>
+          <t>0.1815</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -4696,36 +3765,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>002249</t>
+          <t>673110</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>招商境远灵活配置混合</t>
+          <t>西部利得新润灵活配置混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>87.69</t>
+          <t>80.77</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.1338</t>
+          <t>0.1644</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -4734,32 +3803,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>008311</t>
+          <t>510410</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>圆信永丰优选价值混合A</t>
+          <t>博时上证自然资源ETF</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>98.79</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.1205</t>
+          <t>0.1617</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -4772,36 +3841,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>011698</t>
+          <t>011851</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>南方均衡回报混合型证券投资基金A</t>
+          <t>天弘先进制造混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>50.09</t>
+          <t>83.51</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.1119</t>
+          <t>0.1598</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -4810,36 +3879,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>001844</t>
+          <t>515150</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合C</t>
+          <t>富国中证国企一带一路ETF</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>7.77</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>98.69</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>7.56</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.1111</t>
+          <t>0.1546</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -4848,36 +3917,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>005741</t>
+          <t>010729</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>南方君信灵活配置混合A</t>
+          <t>中泰兴诚价值一年持有期混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>76.52</t>
+          <t>88.64</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>10.02</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.1107</t>
+          <t>0.1533</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -4886,36 +3955,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>512650</t>
+          <t>001782</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>汇添富中证长三角一体化发展主题ETF</t>
+          <t>九泰久益灵活配置混合A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>96.00</t>
+          <t>89.97</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>6.92</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.1011</t>
+          <t>0.1515</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -4924,36 +3993,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>530012</t>
+          <t>005741</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>建信积极配置混合</t>
+          <t>南方君信灵活配置混合A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>51.74</t>
+          <t>73.76</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0991</t>
+          <t>0.1132</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -4962,36 +4031,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>000866</t>
+          <t>512650</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>华宝高端制造股票</t>
+          <t>汇添富中证长三角一体化发展主题ETF</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>91.51</t>
+          <t>96.62</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.0898</t>
+          <t>0.1097</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -5000,36 +4069,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>009696</t>
+          <t>001844</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>招商成长精选一年定期开放混合C</t>
+          <t>九泰久益灵活配置混合C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>87.04</t>
+          <t>89.97</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>6.92</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.0845</t>
+          <t>0.1052</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -5038,32 +4107,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>009840</t>
+          <t>011698</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>西藏东财量化精选混合A</t>
+          <t>南方均衡回报混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>78.70</t>
+          <t>50.32</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.0776</t>
+          <t>0.1046</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -5076,36 +4145,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>004648</t>
+          <t>000866</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>南方安睿混合</t>
+          <t>华宝高端制造股票</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>8.64</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>21.50</t>
+          <t>88.51</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.0648</t>
+          <t>0.1025</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -5114,32 +4183,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>009912</t>
+          <t>530012</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>九泰天富改革新动力混合C</t>
+          <t>建信积极配置混合</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>88.86</t>
+          <t>73.25</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.0413</t>
+          <t>0.1019</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -5152,36 +4221,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>011883</t>
+          <t>515110</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>招商蓝筹精选股票型证券投资基金C</t>
+          <t>易方达中证国企一带一路ETF</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>86.18</t>
+          <t>99.55</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.0409</t>
+          <t>0.1016</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -5190,32 +4259,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>009627</t>
+          <t>002249</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>天弘睿新三个月定期开放混合A</t>
+          <t>招商境远灵活配置混合</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>26.89</t>
+          <t>87.32</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.0397</t>
+          <t>0.0781</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -5228,36 +4297,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>011852</t>
+          <t>004648</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>天弘先进制造混合型证券投资基金C</t>
+          <t>南方安睿混合</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>7.94</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>91.41</t>
+          <t>21.94</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.0359</t>
+          <t>0.0508</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -5266,36 +4335,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>009186</t>
+          <t>009696</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>天弘聚新三个月定期开放混合A</t>
+          <t>招商成长精选一年定期开放混合C</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>23.24</t>
+          <t>79.33</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.0349</t>
+          <t>0.0480</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -5304,36 +4373,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>005059</t>
+          <t>009186</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>南方安福混合A</t>
+          <t>天弘聚新三个月定期开放混合A</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>7.36</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>20.37</t>
+          <t>27.80</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.0324</t>
+          <t>0.0399</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -5342,36 +4411,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>001185</t>
+          <t>011852</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>安信动态策略灵活配置混合A</t>
+          <t>天弘先进制造混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>30.77</t>
+          <t>83.51</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.0322</t>
+          <t>0.0393</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -5380,36 +4449,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>001566</t>
+          <t>015458</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>南方利达灵活配置混合A</t>
+          <t>天弘周期策略混合C</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>20.63</t>
+          <t>88.60</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.0273</t>
+          <t>0.0388</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -5418,36 +4487,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>009841</t>
+          <t>690008</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>西藏东财量化精选混合C</t>
+          <t>民生加银中证内地资源主题指数</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>78.70</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.0238</t>
+          <t>0.0367</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -5456,32 +4525,32 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>010743</t>
+          <t>011313</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>南方宁悦一年持有期混合C</t>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>23.31</t>
+          <t>86.80</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.0229</t>
+          <t>0.0336</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -5494,32 +4563,32 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>011545</t>
+          <t>001181</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>长江沪深300指数增强型发起式证券投资基金A</t>
+          <t>南方改革机遇灵活配置混合</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>67.57</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.0215</t>
+          <t>0.0267</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -5532,36 +4601,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>012108</t>
+          <t>010743</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+          <t>南方宁悦一年持有期混合C</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>25.71</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.0212</t>
+          <t>0.0229</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -5570,36 +4639,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>010006</t>
+          <t>515990</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>南方誉鼎一年持有期混合A</t>
+          <t>汇添富中证国企一带一路ETF</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>20.17</t>
+          <t>98.87</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.0211</t>
+          <t>0.0218</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -5608,36 +4677,36 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>510770</t>
+          <t>002244</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>96.69</t>
+          <t>67.22</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.0203</t>
+          <t>0.0207</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
@@ -5646,36 +4715,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>002029</t>
+          <t>009700</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>安信动态策略灵活配置混合C</t>
+          <t>长江添利混合A</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>30.77</t>
+          <t>25.08</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.0164</t>
+          <t>0.0178</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -5684,36 +4753,36 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>009700</t>
+          <t>510770</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>长江添利混合A</t>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>20.46</t>
+          <t>96.13</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.0152</t>
+          <t>0.0167</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -5722,36 +4791,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>004284</t>
+          <t>009701</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>华宝新优选一年定期开放灵活配置混合</t>
+          <t>长江添利混合C</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>38.91</t>
+          <t>25.08</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.0151</t>
+          <t>0.0128</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -5760,36 +4829,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>009701</t>
+          <t>012220</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>长江添利混合C</t>
+          <t>南方安泰混合C</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>20.46</t>
+          <t>20.79</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.0112</t>
+          <t>0.0113</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -5798,36 +4867,36 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>011701</t>
+          <t>011607</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>南方均衡回报混合型证券投资基金C</t>
+          <t>民生加银中证内地资源主题指数C</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>50.09</t>
+          <t>94.30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.0080</t>
+          <t>0.0103</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -5836,36 +4905,36 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>080015</t>
+          <t>011701</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>长盛中小盘精选混合</t>
+          <t>南方均衡回报混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>87.94</t>
+          <t>50.32</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.0067</t>
+          <t>0.0091</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -5874,36 +4943,36 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>007569</t>
+          <t>010150</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>南方安福混合C</t>
+          <t>南方君信灵活配置混合C</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>20.37</t>
+          <t>73.76</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.0061</t>
+          <t>0.0073</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -5912,36 +4981,36 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>001567</t>
+          <t>519951</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>南方利达灵活配置混合C</t>
+          <t>长信利泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>20.63</t>
+          <t>27.07</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.0060</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -5950,36 +5019,36 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>009628</t>
+          <t>009912</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>天弘睿新三个月定期开放混合C</t>
+          <t>九泰天富改革新动力混合C</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>26.89</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.0050</t>
+          <t>0.0018</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68">
@@ -5988,36 +5057,36 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>008437</t>
+          <t>005429</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>九泰行业优选灵活配置混合A</t>
+          <t>渤海汇金睿选混合A</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>51.13</t>
+          <t>31.83</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -6026,36 +5095,36 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>011546</t>
+          <t>960028</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>长江沪深300指数增强型发起式证券投资基金C</t>
+          <t>建信优选成长混合H</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>89.41</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.0042</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -6064,36 +5133,36 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>010007</t>
+          <t>009187</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>南方誉鼎一年持有期混合C</t>
+          <t>天弘聚新三个月定期开放混合C</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>20.17</t>
+          <t>27.80</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.0003</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71">
@@ -6102,36 +5171,36 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>008312</t>
+          <t>005430</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>圆信永丰优选价值混合C</t>
+          <t>渤海汇金睿选混合C</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>31.83</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -6140,36 +5209,34 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>008438</t>
+          <t>007863</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>九泰行业优选灵活配置混合C</t>
+          <t>长信利泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>51.13</t>
+          <t>27.07</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -6178,36 +5245,34 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>010150</t>
+          <t>008071</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>南方君信灵活配置混合C</t>
+          <t>长信利泰灵活配置混合E</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>76.52</t>
+          <t>27.07</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74">
@@ -6216,36 +5281,34 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>009187</t>
+          <t>015459</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>天弘聚新三个月定期开放混合C</t>
+          <t>天弘精选混合C</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>23.24</t>
+          <t>73.17</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -6254,6 +5317,2836 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0368</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009362</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6107</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011882</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4722</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1836</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0285</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0285</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9363</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7410</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6635</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006608</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德研究优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5916</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>217009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商核心价值混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5753</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5000</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4803</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012262</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>66.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4549</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>47.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4291</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012107</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3303</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3173</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009363</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商丰盈积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3080</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2660</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2618</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2583</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2474</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010742</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2247</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2077</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1992</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1955</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>66.51</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.49</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011698</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>50.09</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005741</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>512650</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富中证长三角一体化发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>51.74</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004648</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方安睿混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011883</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商蓝筹精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009627</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009186</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005059</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方安福混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>30.77</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001566</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010743</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011545</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012108</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泓德瑞嘉三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010006</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>510770</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>申万菱信上证G60战略新兴产业成份ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>96.69</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>30.77</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>38.91</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011701</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>南方均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>50.09</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007569</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南方安福混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001567</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009628</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>天弘睿新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>51.13</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011546</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010007</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>51.13</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010150</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009187</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>23.24</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9537,7 +11430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12707,7 +14600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15383,7 +17276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19173,7 +21066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
